--- a/ShortversionILS/D3SMRC.xlsx
+++ b/ShortversionILS/D3SMRC.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -523,8 +523,8 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <f>IF(L2&lt;4,IF(L2&lt;2,IF(L2&lt;-1,IF(L2&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f>IF(L2&lt;9,IF(L2&lt;5,IF(L2&lt;-3,IF(L2&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N2">
         <f>IF(M2&lt;3,IF(M2&lt;2,0,1),2)</f>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="M3">
-        <f>IF(L3&lt;4,IF(L3&lt;2,IF(L3&lt;-1,IF(L3&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;9,IF(L3&lt;5,IF(L3&lt;-3,IF(L3&lt;-7,0,1),2),3),4)</f>
         <v>4</v>
       </c>
       <c r="N3">
@@ -617,12 +617,12 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M3:M66" si="1">IF(L4&lt;4,IF(L4&lt;2,IF(L4&lt;-1,IF(L4&lt;-3,0,1),2),3),4)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N66" si="2">IF(M4&lt;3,IF(M4&lt;2,0,1),2)</f>
-        <v>2</v>
+        <f t="shared" ref="N4:N66" si="2">IF(M4&lt;3,IF(M4&lt;2,0,1),2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
@@ -806,11 +806,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
@@ -1041,11 +1041,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
@@ -1276,11 +1276,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
@@ -2404,11 +2404,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2545,11 +2545,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <f t="shared" si="2"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="M57">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57">
         <f t="shared" si="2"/>
@@ -3156,11 +3156,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
@@ -3578,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;4,IF(L67&lt;2,IF(L67&lt;-1,IF(L67&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;9,IF(L67&lt;5,IF(L67&lt;-3,IF(L67&lt;-7,0,1),2),3),4)</f>
         <v>4</v>
       </c>
       <c r="N67">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="M68">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
@@ -3673,11 +3673,11 @@
       </c>
       <c r="M69">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3767,11 +3767,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="M75">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <f t="shared" si="5"/>
@@ -4049,11 +4049,11 @@
       </c>
       <c r="M77">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="M78">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78">
         <f t="shared" si="5"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="M79">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N79">
         <f t="shared" si="5"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N80">
         <f t="shared" si="5"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N81">
         <f t="shared" si="5"/>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="M83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84">
         <f t="shared" si="5"/>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <f t="shared" si="5"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <f t="shared" si="5"/>
@@ -4566,11 +4566,11 @@
       </c>
       <c r="M88">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <f t="shared" si="5"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="M92">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N92">
         <f t="shared" si="5"/>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94">
         <f t="shared" si="5"/>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
         <f t="shared" si="5"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="M97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97">
         <f t="shared" si="5"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="M100">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N100">
         <f t="shared" si="5"/>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="M101">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N101">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="M102">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N102">
         <f t="shared" si="5"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="M105">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N105">
         <f t="shared" si="5"/>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="M106">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N106">
         <f t="shared" si="5"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="M110">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110">
         <f t="shared" si="5"/>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="M112">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N112">
         <f t="shared" si="5"/>
@@ -5741,11 +5741,11 @@
       </c>
       <c r="M113">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="M114">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N114">
         <f t="shared" si="5"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="M115">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N115">
         <f t="shared" si="5"/>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="M116">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N116">
         <f t="shared" si="5"/>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="M117">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <f t="shared" si="5"/>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="M118">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N118">
         <f t="shared" si="5"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="M119">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N119">
         <f t="shared" si="5"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="M120">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N120">
         <f t="shared" si="5"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="M123">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N123">
         <f t="shared" si="5"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="M124">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N124">
         <f t="shared" si="5"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="M125">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N125">
         <f t="shared" si="5"/>
@@ -6352,11 +6352,11 @@
       </c>
       <c r="M126">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="M127">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <f t="shared" si="5"/>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="M129">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N129">
         <f t="shared" si="5"/>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="M130">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N130">
         <f t="shared" si="5"/>
@@ -6586,8 +6586,8 @@
         <v>7</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;4,IF(L131&lt;2,IF(L131&lt;-1,IF(L131&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;9,IF(L131&lt;5,IF(L131&lt;-3,IF(L131&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="8">IF(M131&lt;3,IF(M131&lt;2,0,1),2)</f>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="M132">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N132">
         <f t="shared" si="8"/>
@@ -6681,11 +6681,11 @@
       </c>
       <c r="M133">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="M134">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N134">
         <f t="shared" si="8"/>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="M135">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N135">
         <f t="shared" si="8"/>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="M137">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N137">
         <f t="shared" si="8"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="M138">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <f t="shared" si="8"/>
@@ -7010,11 +7010,11 @@
       </c>
       <c r="M140">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N140">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="M141">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N141">
         <f t="shared" si="8"/>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="M142">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N142">
         <f t="shared" si="8"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="M144">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N144">
         <f t="shared" si="8"/>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="M146">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N146">
         <f t="shared" si="8"/>
@@ -7480,11 +7480,11 @@
       </c>
       <c r="M150">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N150">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151">
         <f t="shared" si="8"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="M152">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N152">
         <f t="shared" si="8"/>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="M154">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N154">
         <f t="shared" si="8"/>
@@ -7715,11 +7715,11 @@
       </c>
       <c r="M155">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N155">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -7903,11 +7903,11 @@
       </c>
       <c r="M159">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N159">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="M160">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N160">
         <f t="shared" si="8"/>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="M161">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N161">
         <f t="shared" si="8"/>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="M166">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N166">
         <f t="shared" si="8"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="M167">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N167">
         <f t="shared" si="8"/>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="M169">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N169">
         <f t="shared" si="8"/>
@@ -8420,11 +8420,11 @@
       </c>
       <c r="M170">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N170">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="M171">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N171">
         <f t="shared" si="8"/>
@@ -8561,11 +8561,11 @@
       </c>
       <c r="M173">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N173">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="M174">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N174">
         <f t="shared" si="8"/>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="M176">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N176">
         <f t="shared" si="8"/>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N180">
         <f t="shared" si="8"/>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="M181">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N181">
         <f t="shared" si="8"/>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="M182">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N182">
         <f t="shared" si="8"/>
@@ -9078,11 +9078,11 @@
       </c>
       <c r="M184">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N184">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="M185">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N185">
         <f t="shared" si="8"/>
@@ -9219,11 +9219,11 @@
       </c>
       <c r="M187">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N187">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -9360,11 +9360,11 @@
       </c>
       <c r="M190">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N190">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="M191">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N191">
         <f t="shared" si="8"/>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="M194">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N194">
         <f t="shared" si="8"/>
@@ -9594,8 +9594,8 @@
         <v>7</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;4,IF(L195&lt;2,IF(L195&lt;-1,IF(L195&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;9,IF(L195&lt;5,IF(L195&lt;-3,IF(L195&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" si="11">IF(M195&lt;3,IF(M195&lt;2,0,1),2)</f>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N197">
         <f t="shared" si="11"/>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="M201">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N201">
         <f t="shared" si="11"/>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="M202">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N202">
         <f t="shared" si="11"/>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="M204">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N204">
         <f t="shared" si="11"/>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="M206">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N206">
         <f t="shared" si="11"/>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="M207">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N207">
         <f t="shared" si="11"/>
@@ -10206,11 +10206,11 @@
       </c>
       <c r="M208">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N208">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="M209">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N209">
         <f t="shared" si="11"/>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="M211">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N211">
         <f t="shared" si="11"/>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="M214">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N214">
         <f t="shared" si="11"/>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="M216">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N216">
         <f t="shared" si="11"/>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="M217">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N217">
         <f t="shared" si="11"/>
@@ -10676,11 +10676,11 @@
       </c>
       <c r="M218">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N218">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="M222">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N222">
         <f t="shared" si="11"/>
@@ -10911,11 +10911,11 @@
       </c>
       <c r="M223">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N223">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="M224">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N224">
         <f t="shared" si="11"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="M225">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N225">
         <f t="shared" si="11"/>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="M226">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226">
         <f t="shared" si="11"/>
@@ -11099,11 +11099,11 @@
       </c>
       <c r="M227">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N227">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="M229">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229">
         <f t="shared" si="11"/>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="M230">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N230">
         <f t="shared" si="11"/>
@@ -11287,11 +11287,11 @@
       </c>
       <c r="M231">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N231">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="M232">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N232">
         <f t="shared" si="11"/>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="M233">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N233">
         <f t="shared" si="11"/>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="M234">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N234">
         <f t="shared" si="11"/>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="M235">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N235">
         <f t="shared" si="11"/>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="M236">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N236">
         <f t="shared" si="11"/>
@@ -11569,11 +11569,11 @@
       </c>
       <c r="M237">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N237">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -11616,11 +11616,11 @@
       </c>
       <c r="M238">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N238">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N240">
         <f t="shared" si="11"/>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="M245">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N245">
         <f t="shared" si="11"/>
@@ -12086,11 +12086,11 @@
       </c>
       <c r="M248">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N248">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="M251">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N251">
         <f t="shared" si="11"/>
@@ -12274,11 +12274,11 @@
       </c>
       <c r="M252">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N252">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="M253">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N253">
         <f t="shared" si="11"/>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="M254">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N254">
         <f t="shared" si="11"/>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="M256">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N256">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -12602,8 +12602,8 @@
         <v>5</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;4,IF(L259&lt;2,IF(L259&lt;-1,IF(L259&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;9,IF(L259&lt;5,IF(L259&lt;-3,IF(L259&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N260" si="14">IF(M259&lt;3,IF(M259&lt;2,0,1),2)</f>
